--- a/curation/draft/package12/R12_BC_SDTM_QRS_KFSS.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_KFSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/jchason_cdisc_org/Documents/Work/CDISC/Biomedical Concepts/BCs for KFSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4F8BD-8AF1-4F4B-A142-45279000F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{91B4F8BD-8AF1-4F4B-A142-45279000F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7D87FE3-413E-49B2-B142-D2F066E64D7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_KFSS" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_KFSS!$A$1:$AG$75</definedName>
     <definedName name="ExternalData_5" localSheetId="0" hidden="1">BC_KFSS!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="227">
   <si>
     <t>package_date</t>
   </si>
@@ -342,9 +353,6 @@
     <t>Kurtzke Functional Systems Scores (KFSS) Pyramidal functions.</t>
   </si>
   <si>
-    <t>0; 1; 2; 3; 4; 5; 6; Unknown</t>
-  </si>
-  <si>
     <t>KFSS</t>
   </si>
   <si>
@@ -360,9 +368,6 @@
     <t>Kurtzke Functional Systems Scores (KFSS) Cerebellar functions.</t>
   </si>
   <si>
-    <t>0; 1; 2; 3; 4; 5; Unknown</t>
-  </si>
-  <si>
     <t>Normal; Abnormal signs without disability; Mild ataxia; Moderate truncal or limb ataxia; Severe ataxia, all limbs; Unable to perform coordinated movements due to ataxia; Unknown</t>
   </si>
   <si>
@@ -474,9 +479,6 @@
     <t>Kurtzke Functional Systems Scores (KFSS) Other functions.</t>
   </si>
   <si>
-    <t>0; 1; Unknown</t>
-  </si>
-  <si>
     <t>None; Any other neurologic findings attributed to MS (specify); Unknown</t>
   </si>
   <si>
@@ -712,6 +714,15 @@
   </si>
   <si>
     <t>Normal; Vibration or figure-writing decrease only, in one or two limbs; Mild decrease in touch or pain or position sense, and/or moderate decrease in vibration in one or two limbs, or vibratory (c/s figure writing) decrease alone in three or four limbs; Moderate decrease in touch or pain or position sense, and/or lost vibration in 1 or 2 limbs, or mild decrease in touch or pain and/or moderate decrease in all proprioceptive tests in 3 or 4 limbs; Marked decrease in touch or pain or loss of proprioception, alone or combined, in one or two limbs, or moderate decrease in touch or pain and/or severe proprioceptive decrease in more than two limbs; Loss (essentially) of sensation in one or two limbs, or moderate decrease in touch or pain and/or loss of proprioception for most of the body below the head; Sensation essentially lost below the head; Unknown</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5; 6</t>
+  </si>
+  <si>
+    <t>0; 1</t>
   </si>
 </sst>
 </file>
@@ -1100,35 +1111,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.84375" customWidth="1"/>
+    <col min="2" max="2" width="65.84375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="83.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="59.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.3828125" customWidth="1"/>
+    <col min="7" max="7" width="78.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.3046875" customWidth="1"/>
+    <col min="9" max="9" width="83.15234375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" customWidth="1"/>
+    <col min="12" max="12" width="9.3046875" customWidth="1"/>
+    <col min="13" max="13" width="11.3046875" customWidth="1"/>
+    <col min="14" max="14" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.84375" customWidth="1"/>
+    <col min="16" max="16" width="13.3046875" customWidth="1"/>
+    <col min="17" max="17" width="59.69140625" customWidth="1"/>
+    <col min="18" max="18" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1204,12 +1215,12 @@
         <v>62</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1222,7 +1233,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1230,21 +1241,21 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1257,7 +1268,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1291,7 @@
         <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>102</v>
@@ -1298,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>102</v>
@@ -1342,10 +1353,10 @@
         <v>58</v>
       </c>
       <c r="Q5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1379,7 @@
         <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>102</v>
@@ -1386,10 +1397,10 @@
         <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1423,7 @@
         <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>102</v>
@@ -1430,7 +1441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1438,25 +1449,25 @@
         <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="M8" t="s">
         <v>23</v>
@@ -1471,10 +1482,10 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1482,25 +1493,25 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
         <v>99</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1515,10 +1526,10 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1526,25 +1537,25 @@
         <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
         <v>99</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="M10" t="s">
         <v>55</v>
@@ -1559,10 +1570,10 @@
         <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1570,25 +1581,25 @@
         <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>99</v>
       </c>
       <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -1603,7 +1614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1611,25 +1622,25 @@
         <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
         <v>99</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -1644,10 +1655,10 @@
         <v>58</v>
       </c>
       <c r="Q12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1655,25 +1666,25 @@
         <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
         <v>99</v>
       </c>
       <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="M13" t="s">
         <v>55</v>
@@ -1688,10 +1699,10 @@
         <v>58</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1699,25 +1710,25 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
         <v>99</v>
       </c>
       <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
@@ -1732,7 +1743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1740,25 +1751,25 @@
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>99</v>
       </c>
       <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="M15" t="s">
         <v>23</v>
@@ -1773,10 +1784,10 @@
         <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1784,25 +1795,25 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
       </c>
       <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
@@ -1817,10 +1828,10 @@
         <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1828,25 +1839,25 @@
         <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>99</v>
       </c>
       <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="M17" t="s">
         <v>55</v>
@@ -1861,10 +1872,10 @@
         <v>58</v>
       </c>
       <c r="Q17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1872,25 +1883,25 @@
         <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
         <v>99</v>
       </c>
       <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
@@ -1905,7 +1916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1913,25 +1924,25 @@
         <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>99</v>
       </c>
       <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="M19" t="s">
         <v>23</v>
@@ -1946,10 +1957,10 @@
         <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1957,25 +1968,25 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>99</v>
       </c>
       <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -1990,10 +2001,10 @@
         <v>58</v>
       </c>
       <c r="Q20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2001,25 +2012,25 @@
         <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
       </c>
       <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="M21" t="s">
         <v>55</v>
@@ -2034,10 +2045,10 @@
         <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2045,25 +2056,25 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
       <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -2078,7 +2089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2086,25 +2097,25 @@
         <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
         <v>99</v>
       </c>
       <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" t="s">
-        <v>222</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="M23" t="s">
         <v>23</v>
@@ -2119,10 +2130,10 @@
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2130,25 +2141,25 @@
         <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>99</v>
       </c>
       <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
@@ -2163,10 +2174,10 @@
         <v>58</v>
       </c>
       <c r="Q24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2174,25 +2185,25 @@
         <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
       </c>
       <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="M25" t="s">
         <v>55</v>
@@ -2207,10 +2218,10 @@
         <v>58</v>
       </c>
       <c r="Q25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2218,25 +2229,25 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>99</v>
       </c>
       <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="M26" t="s">
         <v>26</v>
@@ -2251,7 +2262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2259,25 +2270,25 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>99</v>
       </c>
       <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" t="s">
-        <v>222</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M27" t="s">
         <v>23</v>
@@ -2292,10 +2303,10 @@
         <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2303,25 +2314,25 @@
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
         <v>99</v>
       </c>
       <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" t="s">
-        <v>222</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
@@ -2336,10 +2347,10 @@
         <v>58</v>
       </c>
       <c r="Q28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2347,25 +2358,25 @@
         <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>99</v>
       </c>
       <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M29" t="s">
         <v>55</v>
@@ -2380,10 +2391,10 @@
         <v>58</v>
       </c>
       <c r="Q29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2391,25 +2402,25 @@
         <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
         <v>99</v>
       </c>
       <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -2424,7 +2435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2432,25 +2443,25 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
         <v>99</v>
       </c>
       <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
@@ -2465,10 +2476,10 @@
         <v>58</v>
       </c>
       <c r="Q31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2476,25 +2487,25 @@
         <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
         <v>99</v>
       </c>
       <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M32" t="s">
         <v>55</v>
@@ -2509,10 +2520,10 @@
         <v>58</v>
       </c>
       <c r="Q32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2520,25 +2531,25 @@
         <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
         <v>99</v>
       </c>
       <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="G33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" t="s">
-        <v>221</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -2553,7 +2564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2561,25 +2572,25 @@
         <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
       </c>
       <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M34" t="s">
         <v>23</v>
@@ -2594,10 +2605,10 @@
         <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2605,25 +2616,25 @@
         <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
         <v>99</v>
       </c>
       <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M35" t="s">
         <v>22</v>
@@ -2638,10 +2649,10 @@
         <v>58</v>
       </c>
       <c r="Q35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2649,25 +2660,25 @@
         <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
         <v>99</v>
       </c>
       <c r="F36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H36" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
@@ -2682,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="Q36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2693,25 +2704,25 @@
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
       </c>
       <c r="F37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G37" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -2726,33 +2737,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
         <v>99</v>
       </c>
       <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G38" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M38" t="s">
         <v>23</v>
@@ -2767,36 +2778,36 @@
         <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
         <v>99</v>
       </c>
       <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G39" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
@@ -2811,36 +2822,36 @@
         <v>58</v>
       </c>
       <c r="Q39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
         <v>99</v>
       </c>
       <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G40" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" t="s">
-        <v>222</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M40" t="s">
         <v>55</v>
@@ -2855,36 +2866,36 @@
         <v>58</v>
       </c>
       <c r="Q40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
         <v>99</v>
       </c>
       <c r="F41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M41" t="s">
         <v>26</v>
@@ -2899,7 +2910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2907,25 +2918,25 @@
         <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
         <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M42" t="s">
         <v>22</v>
@@ -2943,7 +2954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2951,25 +2962,25 @@
         <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
         <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
@@ -2984,10 +2995,10 @@
         <v>58</v>
       </c>
       <c r="Q43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2995,25 +3006,25 @@
         <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
         <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M44" t="s">
         <v>26</v>
@@ -3039,46 +3050,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC098C6-DE31-49FE-8D92-8AEBD89F8EC9}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" customWidth="1"/>
+    <col min="6" max="6" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.3828125" customWidth="1"/>
+    <col min="12" max="12" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.765625" customWidth="1"/>
+    <col min="16" max="16" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.84375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3196,25 +3207,25 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J2" t="s">
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P2" t="s">
         <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R2" t="s">
         <v>67</v>
@@ -3250,7 +3261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3267,25 +3278,25 @@
         <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
         <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P3" t="s">
         <v>98</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
         <v>74</v>
@@ -3324,7 +3335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3344,10 +3355,10 @@
         <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -3359,10 +3370,10 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R4" t="s">
         <v>74</v>
@@ -3398,7 +3409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3418,19 +3429,19 @@
         <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
         <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R5" t="s">
         <v>74</v>
@@ -3472,7 +3483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3492,19 +3503,19 @@
         <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
         <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R6" t="s">
         <v>74</v>
@@ -3543,7 +3554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3563,19 +3574,22 @@
         <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
         <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M7" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>225</v>
       </c>
       <c r="R7" t="s">
         <v>74</v>
@@ -3614,7 +3628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3634,10 +3648,10 @@
         <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
         <v>92</v>
@@ -3670,12 +3684,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3687,25 +3701,25 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
         <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
         <v>67</v>
@@ -3741,12 +3755,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
@@ -3758,25 +3772,25 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R10" t="s">
         <v>74</v>
@@ -3815,12 +3829,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -3835,10 +3849,10 @@
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -3850,10 +3864,10 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R11" t="s">
         <v>74</v>
@@ -3889,12 +3903,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -3909,19 +3923,19 @@
         <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
         <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R12" t="s">
         <v>74</v>
@@ -3963,12 +3977,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3983,19 +3997,19 @@
         <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J13" t="s">
         <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R13" t="s">
         <v>74</v>
@@ -4034,12 +4048,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -4054,19 +4068,22 @@
         <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
         <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="O14" t="s">
+        <v>224</v>
       </c>
       <c r="R14" t="s">
         <v>74</v>
@@ -4105,12 +4122,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -4125,10 +4142,10 @@
         <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
         <v>92</v>
@@ -4161,12 +4178,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -4178,25 +4195,25 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
         <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
         <v>67</v>
@@ -4232,12 +4249,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
@@ -4249,25 +4266,25 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
         <v>70</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R17" t="s">
         <v>74</v>
@@ -4306,12 +4323,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -4326,10 +4343,10 @@
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
         <v>77</v>
@@ -4341,10 +4358,10 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R18" t="s">
         <v>74</v>
@@ -4380,12 +4397,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -4400,19 +4417,19 @@
         <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R19" t="s">
         <v>74</v>
@@ -4454,12 +4471,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -4474,19 +4491,19 @@
         <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R20" t="s">
         <v>74</v>
@@ -4525,12 +4542,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -4545,10 +4562,10 @@
         <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
         <v>92</v>
@@ -4581,12 +4598,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -4598,25 +4615,25 @@
         <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
         <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R22" t="s">
         <v>67</v>
@@ -4652,12 +4669,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>63</v>
@@ -4669,25 +4686,25 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R23" t="s">
         <v>74</v>
@@ -4726,12 +4743,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -4746,10 +4763,10 @@
         <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
         <v>77</v>
@@ -4761,10 +4778,10 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R24" t="s">
         <v>74</v>
@@ -4800,12 +4817,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -4820,19 +4837,19 @@
         <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
         <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R25" t="s">
         <v>74</v>
@@ -4874,12 +4891,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -4894,19 +4911,19 @@
         <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
         <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R26" t="s">
         <v>74</v>
@@ -4945,12 +4962,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4965,19 +4982,22 @@
         <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
         <v>91</v>
       </c>
       <c r="L27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="O27" t="s">
+        <v>224</v>
       </c>
       <c r="R27" t="s">
         <v>74</v>
@@ -5016,12 +5036,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -5036,10 +5056,10 @@
         <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
         <v>92</v>
@@ -5072,12 +5092,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -5089,25 +5109,25 @@
         <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J29" t="s">
         <v>66</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R29" t="s">
         <v>67</v>
@@ -5143,12 +5163,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -5160,25 +5180,25 @@
         <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J30" t="s">
         <v>70</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R30" t="s">
         <v>74</v>
@@ -5217,12 +5237,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -5237,10 +5257,10 @@
         <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
         <v>77</v>
@@ -5252,10 +5272,10 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R31" t="s">
         <v>74</v>
@@ -5291,12 +5311,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -5311,19 +5331,19 @@
         <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R32" t="s">
         <v>74</v>
@@ -5365,12 +5385,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -5385,19 +5405,19 @@
         <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J33" t="s">
         <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R33" t="s">
         <v>74</v>
@@ -5436,12 +5456,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -5456,19 +5476,22 @@
         <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J34" t="s">
         <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="O34" t="s">
+        <v>225</v>
       </c>
       <c r="R34" t="s">
         <v>74</v>
@@ -5507,12 +5530,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -5527,10 +5550,10 @@
         <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J35" t="s">
         <v>92</v>
@@ -5563,12 +5586,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>63</v>
@@ -5580,25 +5603,25 @@
         <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J36" t="s">
         <v>66</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R36" t="s">
         <v>67</v>
@@ -5634,12 +5657,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>63</v>
@@ -5651,25 +5674,25 @@
         <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J37" t="s">
         <v>70</v>
       </c>
       <c r="L37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R37" t="s">
         <v>74</v>
@@ -5708,12 +5731,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
@@ -5728,10 +5751,10 @@
         <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J38" t="s">
         <v>77</v>
@@ -5743,10 +5766,10 @@
         <v>96</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R38" t="s">
         <v>74</v>
@@ -5782,12 +5805,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -5802,19 +5825,19 @@
         <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J39" t="s">
         <v>81</v>
       </c>
       <c r="L39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R39" t="s">
         <v>74</v>
@@ -5856,12 +5879,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -5876,19 +5899,19 @@
         <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J40" t="s">
         <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R40" t="s">
         <v>74</v>
@@ -5927,12 +5950,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -5947,19 +5970,22 @@
         <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J41" t="s">
         <v>91</v>
       </c>
       <c r="L41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>225</v>
       </c>
       <c r="R41" t="s">
         <v>74</v>
@@ -5998,12 +6024,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
@@ -6018,10 +6044,10 @@
         <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J42" t="s">
         <v>92</v>
@@ -6054,12 +6080,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
@@ -6071,25 +6097,25 @@
         <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J43" t="s">
         <v>66</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R43" t="s">
         <v>67</v>
@@ -6125,12 +6151,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>63</v>
@@ -6142,25 +6168,25 @@
         <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J44" t="s">
         <v>70</v>
       </c>
       <c r="L44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R44" t="s">
         <v>74</v>
@@ -6199,12 +6225,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
@@ -6219,10 +6245,10 @@
         <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J45" t="s">
         <v>77</v>
@@ -6234,10 +6260,10 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R45" t="s">
         <v>74</v>
@@ -6273,12 +6299,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -6293,19 +6319,19 @@
         <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J46" t="s">
         <v>81</v>
       </c>
       <c r="L46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R46" t="s">
         <v>74</v>
@@ -6347,12 +6373,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -6367,19 +6393,19 @@
         <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J47" t="s">
         <v>88</v>
       </c>
       <c r="L47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R47" t="s">
         <v>74</v>
@@ -6418,12 +6444,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -6438,19 +6464,22 @@
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J48" t="s">
         <v>91</v>
       </c>
       <c r="L48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M48" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="O48" t="s">
+        <v>225</v>
       </c>
       <c r="R48" t="s">
         <v>74</v>
@@ -6489,12 +6518,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -6509,10 +6538,10 @@
         <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J49" t="s">
         <v>92</v>
@@ -6545,12 +6574,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>63</v>
@@ -6562,25 +6591,25 @@
         <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J50" t="s">
         <v>66</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R50" t="s">
         <v>67</v>
@@ -6616,12 +6645,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
         <v>63</v>
@@ -6633,25 +6662,25 @@
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J51" t="s">
         <v>70</v>
       </c>
       <c r="L51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R51" t="s">
         <v>74</v>
@@ -6690,12 +6719,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -6710,10 +6739,10 @@
         <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J52" t="s">
         <v>77</v>
@@ -6725,10 +6754,10 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R52" t="s">
         <v>74</v>
@@ -6764,12 +6793,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -6784,19 +6813,19 @@
         <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J53" t="s">
         <v>81</v>
       </c>
       <c r="L53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R53" t="s">
         <v>74</v>
@@ -6838,12 +6867,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
@@ -6858,19 +6887,19 @@
         <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J54" t="s">
         <v>88</v>
       </c>
       <c r="L54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R54" t="s">
         <v>74</v>
@@ -6909,12 +6938,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -6929,10 +6958,10 @@
         <v>65</v>
       </c>
       <c r="H55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J55" t="s">
         <v>92</v>
@@ -6965,12 +6994,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
         <v>63</v>
@@ -6982,25 +7011,25 @@
         <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J56" t="s">
         <v>66</v>
       </c>
       <c r="L56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q56" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R56" t="s">
         <v>67</v>
@@ -7036,12 +7065,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
         <v>63</v>
@@ -7053,25 +7082,25 @@
         <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J57" t="s">
         <v>70</v>
       </c>
       <c r="L57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R57" t="s">
         <v>74</v>
@@ -7110,12 +7139,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
@@ -7130,10 +7159,10 @@
         <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J58" t="s">
         <v>77</v>
@@ -7145,10 +7174,10 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R58" t="s">
         <v>74</v>
@@ -7184,12 +7213,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -7204,19 +7233,19 @@
         <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J59" t="s">
         <v>81</v>
       </c>
       <c r="L59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R59" t="s">
         <v>74</v>
@@ -7258,12 +7287,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -7278,19 +7307,19 @@
         <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J60" t="s">
         <v>88</v>
       </c>
       <c r="L60" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R60" t="s">
         <v>74</v>
@@ -7329,12 +7358,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -7349,19 +7378,22 @@
         <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J61" t="s">
         <v>91</v>
       </c>
       <c r="L61" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M61" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="O61" t="s">
+        <v>224</v>
       </c>
       <c r="R61" t="s">
         <v>74</v>
@@ -7400,12 +7432,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -7420,10 +7452,10 @@
         <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J62" t="s">
         <v>92</v>
@@ -7456,12 +7488,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
@@ -7473,25 +7505,25 @@
         <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J63" t="s">
         <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R63" t="s">
         <v>67</v>
@@ -7527,12 +7559,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
         <v>63</v>
@@ -7544,25 +7576,25 @@
         <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J64" t="s">
         <v>70</v>
       </c>
       <c r="L64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R64" t="s">
         <v>74</v>
@@ -7601,12 +7633,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
         <v>55</v>
@@ -7621,10 +7653,10 @@
         <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J65" t="s">
         <v>77</v>
@@ -7636,10 +7668,10 @@
         <v>96</v>
       </c>
       <c r="P65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R65" t="s">
         <v>74</v>
@@ -7675,12 +7707,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -7695,19 +7727,19 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J66" t="s">
         <v>81</v>
       </c>
       <c r="L66" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R66" t="s">
         <v>74</v>
@@ -7749,12 +7781,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -7769,19 +7801,19 @@
         <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J67" t="s">
         <v>88</v>
       </c>
       <c r="L67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="R67" t="s">
         <v>74</v>
@@ -7820,12 +7852,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -7840,19 +7872,22 @@
         <v>65</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J68" t="s">
         <v>91</v>
       </c>
       <c r="L68" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M68" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="O68" t="s">
+        <v>226</v>
       </c>
       <c r="R68" t="s">
         <v>74</v>
@@ -7891,12 +7926,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -7911,10 +7946,10 @@
         <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J69" t="s">
         <v>92</v>
@@ -7947,12 +7982,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -7964,25 +7999,25 @@
         <v>65</v>
       </c>
       <c r="H70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J70" t="s">
         <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P70" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R70" t="s">
         <v>67</v>
@@ -8018,12 +8053,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -8035,25 +8070,25 @@
         <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J71" t="s">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R71" t="s">
         <v>74</v>
@@ -8092,12 +8127,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>55</v>
@@ -8112,10 +8147,10 @@
         <v>65</v>
       </c>
       <c r="H72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J72" t="s">
         <v>77</v>
@@ -8127,10 +8162,10 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R72" t="s">
         <v>74</v>
@@ -8166,12 +8201,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -8186,10 +8221,10 @@
         <v>65</v>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J73" t="s">
         <v>81</v>
@@ -8234,12 +8269,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -8254,10 +8289,10 @@
         <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J74" t="s">
         <v>88</v>
@@ -8299,12 +8334,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -8319,10 +8354,10 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J75" t="s">
         <v>92</v>

--- a/curation/draft/package12/R12_BC_SDTM_QRS_KFSS.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_KFSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/jchason_cdisc_org/Documents/Work/CDISC/Biomedical Concepts/BCs for KFSS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{91B4F8BD-8AF1-4F4B-A142-45279000F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7D87FE3-413E-49B2-B142-D2F066E64D7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137EC277-F49E-4DC9-8647-5A7DE2525B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_KFSS" sheetId="1" r:id="rId1"/>
@@ -1113,33 +1113,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.84375" customWidth="1"/>
-    <col min="2" max="2" width="65.84375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="39.3828125" customWidth="1"/>
-    <col min="7" max="7" width="78.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3046875" customWidth="1"/>
-    <col min="9" max="9" width="83.15234375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="9.3046875" customWidth="1"/>
-    <col min="13" max="13" width="11.3046875" customWidth="1"/>
-    <col min="14" max="14" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.84375" customWidth="1"/>
-    <col min="16" max="16" width="13.3046875" customWidth="1"/>
-    <col min="17" max="17" width="59.69140625" customWidth="1"/>
-    <col min="18" max="18" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.69140625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="83.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="59.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,29 +1198,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1233,29 +1233,29 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1268,7 +1268,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -3052,44 +3052,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" customWidth="1"/>
-    <col min="6" max="6" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.3828125" customWidth="1"/>
-    <col min="12" max="12" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.765625" customWidth="1"/>
-    <col min="16" max="16" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.3046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.69140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
